--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/all-profiles.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6154" uniqueCount="647">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T17:21:43+00:00</t>
+    <t>2023-10-04T17:37:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1050,22 +1050,6 @@
     <t>Date de dernière modification substancielle</t>
   </si>
   <si>
-    <t>ResearchStudy.extension:eclaire-condition-details</t>
-  </si>
-  <si>
-    <t>eclaire-condition-details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-condition-details}
-</t>
-  </si>
-  <si>
-    <t>Précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de précisions sur le sujet concerné par l'essai</t>
-  </si>
-  <si>
     <t>ResearchStudy.extension:eclaire-therapeutic-area</t>
   </si>
   <si>
@@ -1461,6 +1445,196 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
+    <t xml:space="preserve">value:id}
+</t>
+  </si>
+  <si>
+    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition</t>
+  </si>
+  <si>
+    <t>medDRACondition</t>
+  </si>
+  <si>
+    <t>code MedDRA / MedDRA condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/mdr</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.version</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.display</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.text</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition</t>
+  </si>
+  <si>
+    <t>diseaseCondition</t>
+  </si>
+  <si>
+    <t>condition de la pathologie / Disease Condition</t>
+  </si>
+  <si>
     <t>ResearchStudy.contact</t>
   </si>
   <si>
@@ -1756,12 +1930,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/research-study-objective-type</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-condition-details</t>
-  </si>
-  <si>
-    <t>ECLAIREConditionDetails</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-period</t>
@@ -1984,7 +2152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2791,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106">
@@ -2799,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>560</v>
+        <v>618</v>
       </c>
     </row>
     <row r="107">
@@ -2815,7 +2983,7 @@
         <v>8</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>561</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109">
@@ -2867,7 +3035,7 @@
         <v>20</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116">
@@ -2959,7 +3127,7 @@
         <v>4</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>562</v>
+        <v>620</v>
       </c>
     </row>
     <row r="128">
@@ -2975,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>563</v>
+        <v>621</v>
       </c>
     </row>
     <row r="130">
@@ -3111,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>344</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148">
@@ -3119,7 +3287,7 @@
         <v>4</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>564</v>
+        <v>622</v>
       </c>
     </row>
     <row r="149">
@@ -3135,7 +3303,7 @@
         <v>8</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>565</v>
+        <v>623</v>
       </c>
     </row>
     <row r="151">
@@ -3187,7 +3355,7 @@
         <v>20</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>347</v>
+        <v>191</v>
       </c>
     </row>
     <row r="158">
@@ -3255,7 +3423,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>37</v>
+        <v>624</v>
       </c>
     </row>
     <row r="167">
@@ -3271,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>188</v>
+        <v>344</v>
       </c>
     </row>
     <row r="169">
@@ -3279,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>566</v>
+        <v>626</v>
       </c>
     </row>
     <row r="170">
@@ -3295,7 +3463,7 @@
         <v>8</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>567</v>
+        <v>627</v>
       </c>
     </row>
     <row r="172">
@@ -3347,7 +3515,7 @@
         <v>20</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>191</v>
+        <v>347</v>
       </c>
     </row>
     <row r="179">
@@ -3415,166 +3583,6 @@
         <v>36</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B188" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B190" t="s" s="2">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B191" t="s" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B192" t="s" s="2">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B193" s="2"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B194" t="s" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B195" s="2"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B196" t="s" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B197" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B198" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B199" t="s" s="2">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B200" s="2"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B201" s="2"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B202" t="s" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B203" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B204" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B205" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B206" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B207" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B208" t="s" s="2">
         <v>37</v>
       </c>
     </row>
@@ -3585,7 +3593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK170"/>
+  <dimension ref="A1:AK177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3595,8 +3603,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="60.55078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="43.16796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -3621,7 +3629,7 @@
     <col min="27" max="27" width="73.859375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="11.08203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="52.18359375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="84.87890625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -11076,7 +11084,7 @@
         <v>326</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="E72" t="s" s="2">
         <v>38</v>
@@ -11098,13 +11106,13 @@
         <v>38</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -11175,13 +11183,13 @@
         <v>310</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>326</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="E73" t="s" s="2">
         <v>38</v>
@@ -11203,13 +11211,13 @@
         <v>38</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -11296,7 +11304,7 @@
         <v>39</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>86</v>
@@ -11493,13 +11501,11 @@
         <v>348</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" t="s" s="2">
@@ -11509,25 +11515,29 @@
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J76" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J76" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="K76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>351</v>
+        <v>132</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="Q76" t="s" s="2">
         <v>38</v>
       </c>
@@ -11563,19 +11573,19 @@
         <v>38</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>39</v>
@@ -11595,14 +11605,14 @@
         <v>310</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
@@ -11615,25 +11625,23 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K77" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="L77" t="s" s="2">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
-        <v>134</v>
+        <v>352</v>
       </c>
       <c r="Q77" t="s" s="2">
         <v>38</v>
@@ -11670,10 +11678,10 @@
         <v>38</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>54</v>
+        <v>354</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>38</v>
@@ -11682,7 +11690,7 @@
         <v>55</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>135</v>
+        <v>349</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
@@ -11694,7 +11702,7 @@
         <v>42</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78">
@@ -11702,12 +11710,14 @@
         <v>310</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="E78" t="s" s="2">
         <v>38</v>
       </c>
@@ -11716,10 +11726,10 @@
         <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>38</v>
@@ -11731,14 +11741,14 @@
         <v>137</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="Q78" t="s" s="2">
         <v>38</v>
@@ -11775,19 +11785,19 @@
         <v>38</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>359</v>
+        <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>39</v>
@@ -11807,14 +11817,12 @@
         <v>310</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="D79" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>38</v>
       </c>
@@ -11826,27 +11834,25 @@
         <v>45</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>362</v>
+        <v>47</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>356</v>
+        <v>48</v>
       </c>
       <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
         <v>38</v>
       </c>
@@ -11894,19 +11900,19 @@
         <v>38</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>354</v>
+        <v>49</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80">
@@ -11914,21 +11920,21 @@
         <v>310</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>38</v>
@@ -11940,15 +11946,17 @@
         <v>38</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
         <v>38</v>
@@ -11985,31 +11993,31 @@
         <v>38</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81">
@@ -12017,44 +12025,46 @@
         <v>310</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>127</v>
+        <v>364</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>186</v>
+        <v>365</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P81" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="Q81" t="s" s="2">
         <v>38</v>
       </c>
@@ -12063,7 +12073,7 @@
         <v>38</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>38</v>
@@ -12078,43 +12088,43 @@
         <v>38</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>38</v>
+        <v>370</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>56</v>
+        <v>371</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82">
@@ -12122,10 +12132,10 @@
         <v>310</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -12133,7 +12143,7 @@
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>45</v>
@@ -12142,25 +12152,25 @@
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>86</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P82" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q82" t="s" s="2">
         <v>38</v>
@@ -12170,7 +12180,7 @@
         <v>38</v>
       </c>
       <c r="T82" t="s" s="2">
-        <v>373</v>
+        <v>38</v>
       </c>
       <c r="U82" t="s" s="2">
         <v>38</v>
@@ -12185,13 +12195,13 @@
         <v>38</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AB82" t="s" s="2">
         <v>38</v>
@@ -12209,7 +12219,7 @@
         <v>38</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
@@ -12229,10 +12239,10 @@
         <v>310</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -12255,19 +12265,19 @@
         <v>86</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P83" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q83" t="s" s="2">
         <v>38</v>
@@ -12280,7 +12290,7 @@
         <v>38</v>
       </c>
       <c r="U83" t="s" s="2">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="V83" t="s" s="2">
         <v>38</v>
@@ -12292,13 +12302,13 @@
         <v>38</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>383</v>
+        <v>38</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>384</v>
+        <v>38</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>38</v>
@@ -12316,7 +12326,7 @@
         <v>38</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>39</v>
@@ -12336,10 +12346,10 @@
         <v>310</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12362,20 +12372,18 @@
         <v>86</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>38</v>
       </c>
@@ -12387,7 +12395,7 @@
         <v>38</v>
       </c>
       <c r="U84" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="V84" t="s" s="2">
         <v>38</v>
@@ -12423,7 +12431,7 @@
         <v>38</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>39</v>
@@ -12443,10 +12451,10 @@
         <v>310</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12469,16 +12477,16 @@
         <v>86</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>398</v>
+        <v>223</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
@@ -12492,7 +12500,7 @@
         <v>38</v>
       </c>
       <c r="U85" t="s" s="2">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="V85" t="s" s="2">
         <v>38</v>
@@ -12540,7 +12548,7 @@
         <v>42</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>66</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86">
@@ -12574,7 +12582,7 @@
         <v>86</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>403</v>
@@ -12583,7 +12591,7 @@
         <v>404</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -12633,7 +12641,7 @@
         <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
@@ -12645,7 +12653,7 @@
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>225</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87">
@@ -12653,12 +12661,14 @@
         <v>310</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="D87" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="E87" t="s" s="2">
         <v>38</v>
       </c>
@@ -12667,10 +12677,10 @@
         <v>39</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>38</v>
@@ -12679,18 +12689,18 @@
         <v>86</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="P87" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="Q87" t="s" s="2">
         <v>38</v>
       </c>
@@ -12738,19 +12748,19 @@
         <v>38</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88">
@@ -12758,14 +12768,12 @@
         <v>310</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="D88" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>38</v>
       </c>
@@ -12774,30 +12782,28 @@
         <v>39</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>414</v>
+        <v>47</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>356</v>
+        <v>48</v>
       </c>
       <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
         <v>38</v>
       </c>
@@ -12845,19 +12851,19 @@
         <v>38</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>354</v>
+        <v>49</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89">
@@ -12865,21 +12871,21 @@
         <v>310</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>38</v>
@@ -12891,15 +12897,17 @@
         <v>38</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>38</v>
@@ -12936,31 +12944,31 @@
         <v>38</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
@@ -12968,44 +12976,46 @@
         <v>310</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>127</v>
+        <v>364</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>186</v>
+        <v>365</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P90" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="Q90" t="s" s="2">
         <v>38</v>
       </c>
@@ -13014,7 +13024,7 @@
         <v>38</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>38</v>
+        <v>413</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>38</v>
@@ -13029,43 +13039,43 @@
         <v>38</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>38</v>
+        <v>370</v>
       </c>
       <c r="AB90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>56</v>
+        <v>371</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91">
@@ -13073,10 +13083,10 @@
         <v>310</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -13084,7 +13094,7 @@
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>45</v>
@@ -13093,25 +13103,25 @@
         <v>38</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>86</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P91" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q91" t="s" s="2">
         <v>38</v>
@@ -13121,7 +13131,7 @@
         <v>38</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>418</v>
+        <v>38</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>38</v>
@@ -13136,13 +13146,13 @@
         <v>38</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AB91" t="s" s="2">
         <v>38</v>
@@ -13160,7 +13170,7 @@
         <v>38</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>39</v>
@@ -13180,10 +13190,10 @@
         <v>310</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13206,19 +13216,19 @@
         <v>86</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P92" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q92" t="s" s="2">
         <v>38</v>
@@ -13231,7 +13241,7 @@
         <v>38</v>
       </c>
       <c r="U92" t="s" s="2">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="V92" t="s" s="2">
         <v>38</v>
@@ -13243,13 +13253,13 @@
         <v>38</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>383</v>
+        <v>38</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>384</v>
+        <v>38</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>38</v>
@@ -13267,7 +13277,7 @@
         <v>38</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>39</v>
@@ -13287,10 +13297,10 @@
         <v>310</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13313,20 +13323,18 @@
         <v>86</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>38</v>
       </c>
@@ -13338,7 +13346,7 @@
         <v>38</v>
       </c>
       <c r="U93" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="V93" t="s" s="2">
         <v>38</v>
@@ -13374,7 +13382,7 @@
         <v>38</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
@@ -13394,10 +13402,10 @@
         <v>310</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13420,16 +13428,16 @@
         <v>86</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>398</v>
+        <v>223</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
@@ -13443,7 +13451,7 @@
         <v>38</v>
       </c>
       <c r="U94" t="s" s="2">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="V94" t="s" s="2">
         <v>38</v>
@@ -13491,7 +13499,7 @@
         <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>66</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95">
@@ -13499,7 +13507,7 @@
         <v>310</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>402</v>
@@ -13525,7 +13533,7 @@
         <v>86</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>403</v>
@@ -13534,7 +13542,7 @@
         <v>404</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -13584,7 +13592,7 @@
         <v>38</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
@@ -13596,7 +13604,7 @@
         <v>42</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>225</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96">
@@ -13604,10 +13612,10 @@
         <v>310</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13621,7 +13629,7 @@
         <v>45</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>38</v>
@@ -13630,16 +13638,16 @@
         <v>86</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>410</v>
+        <v>144</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -13689,7 +13697,7 @@
         <v>38</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>39</v>
@@ -13701,7 +13709,7 @@
         <v>42</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97">
@@ -13709,10 +13717,10 @@
         <v>310</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13723,10 +13731,10 @@
         <v>39</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>38</v>
@@ -13735,16 +13743,16 @@
         <v>86</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>46</v>
+        <v>423</v>
       </c>
       <c r="M97" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N97" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="O97" t="s" s="2">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -13794,19 +13802,19 @@
         <v>38</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>66</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98">
@@ -13814,14 +13822,14 @@
         <v>310</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>38</v>
+        <v>427</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
@@ -13851,7 +13859,9 @@
       <c r="O98" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="P98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="Q98" t="s" s="2">
         <v>38</v>
       </c>
@@ -13899,7 +13909,7 @@
         <v>38</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
@@ -13919,46 +13929,44 @@
         <v>310</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>432</v>
+        <v>38</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>86</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N99" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="O99" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>38</v>
       </c>
@@ -13982,13 +13990,13 @@
         <v>38</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="AB99" t="s" s="2">
         <v>38</v>
@@ -14006,19 +14014,19 @@
         <v>38</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100">
@@ -14037,22 +14045,22 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>86</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>438</v>
@@ -14061,7 +14069,7 @@
         <v>439</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
@@ -14087,7 +14095,7 @@
         <v>38</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>440</v>
@@ -14114,7 +14122,7 @@
         <v>437</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>45</v>
@@ -14148,7 +14156,7 @@
         <v>45</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>38</v>
@@ -14194,11 +14202,9 @@
       <c r="Y101" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z101" t="s" s="2">
+      <c r="Z101" s="2"/>
+      <c r="AA101" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AB101" t="s" s="2">
         <v>38</v>
@@ -14236,10 +14242,10 @@
         <v>310</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14250,7 +14256,7 @@
         <v>39</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>86</v>
@@ -14265,10 +14271,10 @@
         <v>72</v>
       </c>
       <c r="M102" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>176</v>
@@ -14297,11 +14303,13 @@
         <v>38</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Z102" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="AA102" t="s" s="2">
-        <v>450</v>
+        <v>38</v>
       </c>
       <c r="AB102" t="s" s="2">
         <v>38</v>
@@ -14319,13 +14327,13 @@
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>42</v>
@@ -14339,10 +14347,10 @@
         <v>310</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14356,7 +14364,7 @@
         <v>40</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>38</v>
@@ -14368,10 +14376,10 @@
         <v>72</v>
       </c>
       <c r="M103" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>176</v>
@@ -14403,7 +14411,7 @@
         <v>236</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>38</v>
@@ -14424,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>39</v>
@@ -14444,10 +14452,10 @@
         <v>310</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -14461,7 +14469,7 @@
         <v>40</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>38</v>
@@ -14473,10 +14481,10 @@
         <v>72</v>
       </c>
       <c r="M104" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>176</v>
@@ -14508,28 +14516,28 @@
         <v>236</v>
       </c>
       <c r="Z104" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AA104" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AA104" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AB104" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>38</v>
+        <v>459</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>38</v>
+        <v>460</v>
       </c>
       <c r="AE104" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>39</v>
@@ -14549,12 +14557,14 @@
         <v>310</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="D105" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="E105" t="s" s="2">
         <v>38</v>
       </c>
@@ -14578,10 +14588,10 @@
         <v>72</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>176</v>
@@ -14613,10 +14623,10 @@
         <v>236</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AB105" t="s" s="2">
         <v>38</v>
@@ -14634,7 +14644,7 @@
         <v>38</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>39</v>
@@ -14657,7 +14667,7 @@
         <v>464</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14668,25 +14678,25 @@
         <v>39</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>465</v>
+        <v>46</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>466</v>
+        <v>47</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>467</v>
+        <v>48</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -14737,19 +14747,19 @@
         <v>38</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>464</v>
+        <v>49</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107">
@@ -14757,21 +14767,21 @@
         <v>310</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>38</v>
@@ -14783,15 +14793,17 @@
         <v>38</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
         <v>38</v>
@@ -14828,31 +14840,31 @@
         <v>38</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE107" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108">
@@ -14860,14 +14872,14 @@
         <v>310</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>469</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s" s="2">
@@ -14883,21 +14895,23 @@
         <v>38</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>127</v>
+        <v>470</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>186</v>
+        <v>471</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P108" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="Q108" t="s" s="2">
         <v>38</v>
       </c>
@@ -14933,19 +14947,19 @@
         <v>38</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE108" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>56</v>
+        <v>474</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>39</v>
@@ -14957,7 +14971,7 @@
         <v>42</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109">
@@ -14965,14 +14979,12 @@
         <v>310</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="D109" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>38</v>
       </c>
@@ -14984,7 +14996,7 @@
         <v>45</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>38</v>
@@ -14993,13 +15005,13 @@
         <v>38</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>471</v>
+        <v>46</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>472</v>
+        <v>47</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -15050,19 +15062,19 @@
         <v>38</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110">
@@ -15070,21 +15082,21 @@
         <v>310</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>38</v>
@@ -15093,19 +15105,19 @@
         <v>38</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>474</v>
+        <v>127</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>475</v>
+        <v>186</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>476</v>
+        <v>129</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -15143,31 +15155,31 @@
         <v>38</v>
       </c>
       <c r="AC110" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE110" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>477</v>
+        <v>56</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111">
@@ -15175,10 +15187,10 @@
         <v>310</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15189,7 +15201,7 @@
         <v>39</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>38</v>
@@ -15201,16 +15213,20 @@
         <v>86</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="Q111" t="s" s="2">
         <v>38</v>
       </c>
@@ -15234,13 +15250,11 @@
         <v>38</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="Z111" s="2"/>
       <c r="AA111" t="s" s="2">
-        <v>38</v>
+        <v>485</v>
       </c>
       <c r="AB111" t="s" s="2">
         <v>38</v>
@@ -15258,19 +15272,19 @@
         <v>38</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112">
@@ -15278,10 +15292,10 @@
         <v>310</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15292,7 +15306,7 @@
         <v>39</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>38</v>
@@ -15301,19 +15315,19 @@
         <v>38</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>483</v>
+        <v>46</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -15363,13 +15377,13 @@
         <v>38</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>42</v>
@@ -15383,10 +15397,10 @@
         <v>310</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15397,7 +15411,7 @@
         <v>39</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>38</v>
@@ -15409,18 +15423,20 @@
         <v>86</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P113" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="Q113" t="s" s="2">
         <v>38</v>
       </c>
@@ -15444,10 +15460,10 @@
         <v>38</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>490</v>
+        <v>38</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>38</v>
@@ -15468,13 +15484,13 @@
         <v>38</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>42</v>
@@ -15488,10 +15504,10 @@
         <v>310</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15502,10 +15518,10 @@
         <v>39</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>38</v>
@@ -15514,18 +15530,20 @@
         <v>86</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P114" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="Q114" t="s" s="2">
         <v>38</v>
       </c>
@@ -15549,13 +15567,13 @@
         <v>38</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>494</v>
+        <v>38</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>495</v>
+        <v>38</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>38</v>
@@ -15573,13 +15591,13 @@
         <v>38</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>42</v>
@@ -15593,10 +15611,10 @@
         <v>310</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15610,27 +15628,29 @@
         <v>45</v>
       </c>
       <c r="I115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="L115" t="s" s="2">
-        <v>497</v>
+        <v>288</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="P115" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="Q115" t="s" s="2">
         <v>38</v>
       </c>
@@ -15678,7 +15698,7 @@
         <v>38</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>39</v>
@@ -15698,24 +15718,24 @@
         <v>310</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>502</v>
+        <v>38</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J116" t="s" s="2">
         <v>38</v>
@@ -15724,18 +15744,20 @@
         <v>86</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>503</v>
+        <v>46</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="P116" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="Q116" t="s" s="2">
         <v>38</v>
       </c>
@@ -15783,19 +15805,19 @@
         <v>38</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117">
@@ -15803,24 +15825,26 @@
         <v>310</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="D117" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="E117" t="s" s="2">
-        <v>508</v>
+        <v>38</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J117" t="s" s="2">
         <v>38</v>
@@ -15829,16 +15853,16 @@
         <v>86</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
@@ -15864,13 +15888,13 @@
         <v>38</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>38</v>
+        <v>457</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>38</v>
+        <v>458</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>38</v>
@@ -15888,19 +15912,19 @@
         <v>38</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>225</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118">
@@ -15908,10 +15932,10 @@
         <v>310</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15922,7 +15946,7 @@
         <v>39</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>86</v>
@@ -15934,17 +15958,15 @@
         <v>86</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>263</v>
+        <v>523</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="O118" s="2"/>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
         <v>38</v>
@@ -15993,19 +16015,19 @@
         <v>38</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119">
@@ -16013,10 +16035,10 @@
         <v>310</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -16036,20 +16058,18 @@
         <v>38</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>515</v>
+        <v>46</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>516</v>
+        <v>47</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
         <v>38</v>
@@ -16098,7 +16118,7 @@
         <v>38</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>514</v>
+        <v>49</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>39</v>
@@ -16107,10 +16127,10 @@
         <v>45</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120">
@@ -16118,14 +16138,14 @@
         <v>310</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
@@ -16135,25 +16155,25 @@
         <v>40</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>270</v>
+        <v>51</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>519</v>
+        <v>127</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>520</v>
+        <v>186</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -16191,19 +16211,19 @@
         <v>38</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE120" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>518</v>
+        <v>56</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>39</v>
@@ -16215,7 +16235,7 @@
         <v>42</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>268</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121">
@@ -16223,12 +16243,14 @@
         <v>310</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="D121" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="E121" t="s" s="2">
         <v>38</v>
       </c>
@@ -16240,26 +16262,24 @@
         <v>45</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>72</v>
+        <v>529</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O121" s="2"/>
       <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
         <v>38</v>
@@ -16284,13 +16304,13 @@
         <v>38</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>524</v>
+        <v>38</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>525</v>
+        <v>38</v>
       </c>
       <c r="AB121" t="s" s="2">
         <v>38</v>
@@ -16308,19 +16328,19 @@
         <v>38</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>521</v>
+        <v>56</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122">
@@ -16328,10 +16348,10 @@
         <v>310</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16342,7 +16362,7 @@
         <v>39</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>38</v>
@@ -16351,19 +16371,19 @@
         <v>38</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>527</v>
+        <v>46</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
@@ -16413,13 +16433,13 @@
         <v>38</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>42</v>
@@ -16433,10 +16453,10 @@
         <v>310</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16456,16 +16476,16 @@
         <v>38</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -16516,7 +16536,7 @@
         <v>38</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>39</v>
@@ -16528,7 +16548,7 @@
         <v>42</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>66</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124">
@@ -16536,10 +16556,10 @@
         <v>310</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16550,7 +16570,7 @@
         <v>39</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>38</v>
@@ -16562,15 +16582,17 @@
         <v>38</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>46</v>
+        <v>541</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>47</v>
+        <v>542</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O124" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
         <v>38</v>
@@ -16619,19 +16641,19 @@
         <v>38</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>49</v>
+        <v>540</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125">
@@ -16639,14 +16661,14 @@
         <v>310</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" t="s" s="2">
@@ -16662,19 +16684,19 @@
         <v>38</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>127</v>
+        <v>546</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>186</v>
+        <v>547</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
@@ -16700,10 +16722,10 @@
         <v>38</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>38</v>
+        <v>548</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>38</v>
@@ -16712,19 +16734,19 @@
         <v>38</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE125" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>56</v>
+        <v>545</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>39</v>
@@ -16736,7 +16758,7 @@
         <v>42</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126">
@@ -16744,14 +16766,14 @@
         <v>310</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" t="s" s="2">
@@ -16761,29 +16783,27 @@
         <v>40</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>86</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>248</v>
+        <v>550</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>249</v>
+        <v>551</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P126" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
         <v>38</v>
       </c>
@@ -16807,13 +16827,13 @@
         <v>38</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>38</v>
+        <v>552</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>38</v>
+        <v>553</v>
       </c>
       <c r="AB126" t="s" s="2">
         <v>38</v>
@@ -16831,7 +16851,7 @@
         <v>38</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>250</v>
+        <v>549</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>39</v>
@@ -16843,7 +16863,7 @@
         <v>42</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127">
@@ -16851,10 +16871,10 @@
         <v>310</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16862,13 +16882,13 @@
       </c>
       <c r="F127" s="2"/>
       <c r="G127" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J127" t="s" s="2">
         <v>38</v>
@@ -16877,16 +16897,16 @@
         <v>38</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>46</v>
+        <v>555</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>144</v>
+        <v>558</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
@@ -16936,10 +16956,10 @@
         <v>38</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>45</v>
@@ -16956,42 +16976,42 @@
         <v>310</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>38</v>
+        <v>560</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>72</v>
+        <v>561</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>176</v>
+        <v>564</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
@@ -17041,19 +17061,19 @@
         <v>38</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>66</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129">
@@ -17061,14 +17081,14 @@
         <v>310</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>38</v>
+        <v>566</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" t="s" s="2">
@@ -17084,19 +17104,19 @@
         <v>38</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
@@ -17146,7 +17166,7 @@
         <v>38</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>39</v>
@@ -17158,7 +17178,7 @@
         <v>42</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>66</v>
+        <v>225</v>
       </c>
     </row>
     <row r="130">
@@ -17166,10 +17186,10 @@
         <v>310</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17180,27 +17200,29 @@
         <v>39</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O130" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
         <v>38</v>
@@ -17249,19 +17271,19 @@
         <v>38</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>66</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131">
@@ -17269,10 +17291,10 @@
         <v>310</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17292,18 +17314,20 @@
         <v>38</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>46</v>
+        <v>573</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>47</v>
+        <v>574</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
         <v>38</v>
@@ -17352,7 +17376,7 @@
         <v>38</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>49</v>
+        <v>572</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>39</v>
@@ -17361,10 +17385,10 @@
         <v>45</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>38</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132">
@@ -17372,14 +17396,14 @@
         <v>310</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" t="s" s="2">
@@ -17389,25 +17413,25 @@
         <v>40</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>127</v>
+        <v>577</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>186</v>
+        <v>578</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>129</v>
+        <v>273</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
@@ -17445,19 +17469,19 @@
         <v>38</v>
       </c>
       <c r="AC132" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE132" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>39</v>
@@ -17469,7 +17493,7 @@
         <v>42</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>43</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133">
@@ -17477,46 +17501,44 @@
         <v>310</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>86</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>248</v>
+        <v>580</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>249</v>
+        <v>581</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
         <v>38</v>
       </c>
@@ -17540,13 +17562,13 @@
         <v>38</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>38</v>
+        <v>582</v>
       </c>
       <c r="AA133" t="s" s="2">
-        <v>38</v>
+        <v>583</v>
       </c>
       <c r="AB133" t="s" s="2">
         <v>38</v>
@@ -17564,19 +17586,19 @@
         <v>38</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>250</v>
+        <v>579</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134">
@@ -17584,10 +17606,10 @@
         <v>310</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17598,7 +17620,7 @@
         <v>39</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>38</v>
@@ -17610,16 +17632,16 @@
         <v>38</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>46</v>
+        <v>585</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>144</v>
+        <v>588</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -17669,13 +17691,13 @@
         <v>38</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>42</v>
@@ -17689,10 +17711,10 @@
         <v>310</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17703,7 +17725,7 @@
         <v>39</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>38</v>
@@ -17715,17 +17737,15 @@
         <v>38</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="O135" s="2"/>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
         <v>38</v>
@@ -17750,13 +17770,13 @@
         <v>38</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>558</v>
+        <v>38</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>559</v>
+        <v>38</v>
       </c>
       <c r="AB135" t="s" s="2">
         <v>38</v>
@@ -17774,13 +17794,13 @@
         <v>38</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>42</v>
@@ -17791,13 +17811,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>29</v>
+        <v>592</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>29</v>
+        <v>592</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17808,7 +17828,7 @@
         <v>39</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>38</v>
@@ -17820,13 +17840,13 @@
         <v>38</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>334</v>
+        <v>48</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -17877,41 +17897,41 @@
         <v>38</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>44</v>
+        <v>593</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>44</v>
+        <v>593</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I137" t="s" s="2">
         <v>38</v>
@@ -17923,15 +17943,17 @@
         <v>38</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O137" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
         <v>38</v>
@@ -17968,74 +17990,78 @@
         <v>38</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>50</v>
+        <v>594</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>50</v>
+        <v>594</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L138" t="s" s="2">
         <v>51</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P138" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="Q138" t="s" s="2">
         <v>38</v>
       </c>
@@ -18071,19 +18097,19 @@
         <v>38</v>
       </c>
       <c r="AC138" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE138" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>39</v>
@@ -18100,13 +18126,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>57</v>
+        <v>595</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>57</v>
+        <v>595</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18129,16 +18155,16 @@
         <v>38</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>59</v>
+        <v>596</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>60</v>
+        <v>597</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -18146,7 +18172,7 @@
       </c>
       <c r="R139" s="2"/>
       <c r="S139" t="s" s="2">
-        <v>560</v>
+        <v>38</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>38</v>
@@ -18188,7 +18214,7 @@
         <v>38</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>57</v>
+        <v>595</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>45</v>
@@ -18197,21 +18223,21 @@
         <v>45</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>62</v>
+        <v>598</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>62</v>
+        <v>598</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18234,15 +18260,17 @@
         <v>38</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>64</v>
+        <v>599</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O140" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>38</v>
@@ -18291,7 +18319,7 @@
         <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>62</v>
+        <v>598</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
@@ -18308,13 +18336,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>29</v>
+        <v>601</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>29</v>
+        <v>601</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18325,7 +18353,7 @@
         <v>39</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I141" t="s" s="2">
         <v>38</v>
@@ -18337,15 +18365,17 @@
         <v>38</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>29</v>
+        <v>602</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O141" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>38</v>
@@ -18394,30 +18424,30 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>29</v>
+        <v>601</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>44</v>
+        <v>604</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>44</v>
+        <v>604</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18428,7 +18458,7 @@
         <v>39</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>38</v>
@@ -18440,13 +18470,13 @@
         <v>38</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>47</v>
+        <v>605</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>48</v>
+        <v>606</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -18497,30 +18527,30 @@
         <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>49</v>
+        <v>604</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>50</v>
+        <v>607</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>50</v>
+        <v>607</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18531,7 +18561,7 @@
         <v>39</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>38</v>
@@ -18543,13 +18573,13 @@
         <v>38</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -18588,53 +18618,53 @@
         <v>38</v>
       </c>
       <c r="AC143" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD143" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE143" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>57</v>
+        <v>608</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>57</v>
+        <v>608</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>38</v>
@@ -18646,16 +18676,16 @@
         <v>38</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -18663,7 +18693,7 @@
       </c>
       <c r="R144" s="2"/>
       <c r="S144" t="s" s="2">
-        <v>562</v>
+        <v>38</v>
       </c>
       <c r="T144" t="s" s="2">
         <v>38</v>
@@ -18693,74 +18723,78 @@
         <v>38</v>
       </c>
       <c r="AC144" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD144" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE144" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P145" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="Q145" t="s" s="2">
         <v>38</v>
       </c>
@@ -18808,30 +18842,30 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>29</v>
+        <v>610</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>29</v>
+        <v>610</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18842,7 +18876,7 @@
         <v>39</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I146" t="s" s="2">
         <v>38</v>
@@ -18854,15 +18888,17 @@
         <v>38</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>29</v>
+        <v>611</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
         <v>38</v>
@@ -18911,30 +18947,30 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>29</v>
+        <v>610</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>44</v>
+        <v>613</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>44</v>
+        <v>613</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18957,15 +18993,17 @@
         <v>38</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>47</v>
+        <v>614</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O147" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
         <v>38</v>
@@ -18990,13 +19028,13 @@
         <v>38</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>38</v>
+        <v>616</v>
       </c>
       <c r="AA147" t="s" s="2">
-        <v>38</v>
+        <v>617</v>
       </c>
       <c r="AB147" t="s" s="2">
         <v>38</v>
@@ -19014,7 +19052,7 @@
         <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>49</v>
+        <v>613</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>39</v>
@@ -19023,21 +19061,21 @@
         <v>45</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19048,7 +19086,7 @@
         <v>39</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>38</v>
@@ -19060,13 +19098,13 @@
         <v>38</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>52</v>
+        <v>337</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -19105,19 +19143,19 @@
         <v>38</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD148" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE148" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
@@ -19134,13 +19172,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19148,7 +19186,7 @@
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>45</v>
@@ -19163,24 +19201,22 @@
         <v>38</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O149" s="2"/>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R149" s="2"/>
       <c r="S149" t="s" s="2">
-        <v>564</v>
+        <v>38</v>
       </c>
       <c r="T149" t="s" s="2">
         <v>38</v>
@@ -19222,10 +19258,10 @@
         <v>38</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>45</v>
@@ -19239,13 +19275,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19256,7 +19292,7 @@
         <v>39</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>38</v>
@@ -19268,13 +19304,13 @@
         <v>38</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -19313,42 +19349,42 @@
         <v>38</v>
       </c>
       <c r="AC150" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD150" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE150" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>188</v>
+        <v>334</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19356,10 +19392,10 @@
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>38</v>
@@ -19371,22 +19407,24 @@
         <v>38</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O151" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R151" s="2"/>
       <c r="S151" t="s" s="2">
-        <v>38</v>
+        <v>618</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>38</v>
@@ -19428,30 +19466,30 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>188</v>
+        <v>334</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19474,13 +19512,13 @@
         <v>38</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -19531,7 +19569,7 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
@@ -19540,21 +19578,21 @@
         <v>45</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>188</v>
+        <v>339</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19565,7 +19603,7 @@
         <v>39</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>38</v>
@@ -19577,13 +19615,13 @@
         <v>38</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M153" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>52</v>
+        <v>342</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -19622,19 +19660,19 @@
         <v>38</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE153" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
@@ -19651,13 +19689,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>188</v>
+        <v>339</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19665,7 +19703,7 @@
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>45</v>
@@ -19680,24 +19718,22 @@
         <v>38</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O154" s="2"/>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R154" s="2"/>
       <c r="S154" t="s" s="2">
-        <v>566</v>
+        <v>38</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>38</v>
@@ -19739,10 +19775,10 @@
         <v>38</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>45</v>
@@ -19756,13 +19792,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>188</v>
+        <v>339</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19773,7 +19809,7 @@
         <v>39</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>38</v>
@@ -19785,13 +19821,13 @@
         <v>38</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>569</v>
+        <v>51</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -19830,42 +19866,42 @@
         <v>38</v>
       </c>
       <c r="AC155" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD155" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE155" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19873,10 +19909,10 @@
       </c>
       <c r="F156" s="2"/>
       <c r="G156" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I156" t="s" s="2">
         <v>38</v>
@@ -19888,22 +19924,24 @@
         <v>38</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O156" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R156" s="2"/>
       <c r="S156" t="s" s="2">
-        <v>38</v>
+        <v>620</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>38</v>
@@ -19945,30 +19983,30 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19991,13 +20029,13 @@
         <v>38</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -20048,7 +20086,7 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
@@ -20057,25 +20095,25 @@
         <v>45</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
@@ -20094,17 +20132,15 @@
         <v>38</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="O158" s="2"/>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
         <v>38</v>
@@ -20141,19 +20177,19 @@
         <v>38</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD158" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE158" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>39</v>
@@ -20170,17 +20206,15 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>572</v>
+        <v>44</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D159" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
         <v>38</v>
       </c>
@@ -20201,13 +20235,13 @@
         <v>38</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>574</v>
+        <v>47</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -20258,30 +20292,30 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>575</v>
+        <v>50</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>576</v>
+        <v>50</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20292,7 +20326,7 @@
         <v>39</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>38</v>
@@ -20304,13 +20338,13 @@
         <v>38</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -20349,42 +20383,42 @@
         <v>38</v>
       </c>
       <c r="AC160" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE160" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>577</v>
+        <v>57</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>578</v>
+        <v>57</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20392,10 +20426,10 @@
       </c>
       <c r="F161" s="2"/>
       <c r="G161" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I161" t="s" s="2">
         <v>38</v>
@@ -20407,22 +20441,24 @@
         <v>38</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O161" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R161" s="2"/>
       <c r="S161" t="s" s="2">
-        <v>38</v>
+        <v>622</v>
       </c>
       <c r="T161" t="s" s="2">
         <v>38</v>
@@ -20452,42 +20488,42 @@
         <v>38</v>
       </c>
       <c r="AC161" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD161" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE161" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>579</v>
+        <v>62</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>580</v>
+        <v>62</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20495,7 +20531,7 @@
       </c>
       <c r="F162" s="2"/>
       <c r="G162" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>45</v>
@@ -20510,24 +20546,22 @@
         <v>38</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>58</v>
+        <v>625</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O162" s="2"/>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R162" s="2"/>
       <c r="S162" t="s" s="2">
-        <v>573</v>
+        <v>38</v>
       </c>
       <c r="T162" t="s" s="2">
         <v>38</v>
@@ -20569,30 +20603,30 @@
         <v>38</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>581</v>
+        <v>29</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>582</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20603,7 +20637,7 @@
         <v>39</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>38</v>
@@ -20615,13 +20649,13 @@
         <v>38</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -20648,11 +20682,13 @@
         <v>38</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Z163" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA163" t="s" s="2">
-        <v>583</v>
+        <v>38</v>
       </c>
       <c r="AB163" t="s" s="2">
         <v>38</v>
@@ -20670,34 +20706,32 @@
         <v>38</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>584</v>
+        <v>44</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D164" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>38</v>
       </c>
@@ -20718,13 +20752,13 @@
         <v>38</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -20775,41 +20809,41 @@
         <v>38</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>586</v>
+        <v>50</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>576</v>
+        <v>50</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>38</v>
@@ -20821,15 +20855,17 @@
         <v>38</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O165" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
         <v>38</v>
@@ -20866,44 +20902,46 @@
         <v>38</v>
       </c>
       <c r="AC165" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD165" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE165" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>587</v>
+        <v>628</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="D166" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D166" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="E166" t="s" s="2">
         <v>38</v>
       </c>
@@ -20912,7 +20950,7 @@
         <v>39</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>38</v>
@@ -20927,7 +20965,7 @@
         <v>51</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>29</v>
+        <v>630</v>
       </c>
       <c r="N166" t="s" s="2">
         <v>52</v>
@@ -20969,16 +21007,16 @@
         <v>38</v>
       </c>
       <c r="AC166" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD166" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE166" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>56</v>
@@ -20998,13 +21036,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>588</v>
+        <v>631</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>580</v>
+        <v>632</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21012,7 +21050,7 @@
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>45</v>
@@ -21027,24 +21065,22 @@
         <v>38</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O167" s="2"/>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R167" s="2"/>
       <c r="S167" t="s" s="2">
-        <v>585</v>
+        <v>38</v>
       </c>
       <c r="T167" t="s" s="2">
         <v>38</v>
@@ -21086,10 +21122,10 @@
         <v>38</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>45</v>
@@ -21103,13 +21139,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>582</v>
+        <v>634</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21120,7 +21156,7 @@
         <v>39</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I168" t="s" s="2">
         <v>38</v>
@@ -21132,13 +21168,13 @@
         <v>38</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -21177,42 +21213,42 @@
         <v>38</v>
       </c>
       <c r="AC168" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD168" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE168" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>57</v>
+        <v>635</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>57</v>
+        <v>636</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21252,7 +21288,7 @@
       </c>
       <c r="R169" s="2"/>
       <c r="S169" t="s" s="2">
-        <v>570</v>
+        <v>629</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>38</v>
@@ -21311,13 +21347,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>62</v>
+        <v>637</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>62</v>
+        <v>638</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -21328,7 +21364,7 @@
         <v>39</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I170" t="s" s="2">
         <v>38</v>
@@ -21340,7 +21376,7 @@
         <v>38</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>590</v>
+        <v>72</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>64</v>
@@ -21373,13 +21409,11 @@
         <v>38</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Z170" s="2"/>
       <c r="AA170" t="s" s="2">
-        <v>38</v>
+        <v>639</v>
       </c>
       <c r="AB170" t="s" s="2">
         <v>38</v>
@@ -21409,6 +21443,733 @@
         <v>42</v>
       </c>
       <c r="AK170" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D171" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="E171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R171" s="2"/>
+      <c r="S171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R172" s="2"/>
+      <c r="S172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R173" s="2"/>
+      <c r="S173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O174" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P174" s="2"/>
+      <c r="Q174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R174" s="2"/>
+      <c r="S174" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R175" s="2"/>
+      <c r="S175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F176" s="2"/>
+      <c r="G176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P176" s="2"/>
+      <c r="Q176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R176" s="2"/>
+      <c r="S176" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R177" s="2"/>
+      <c r="S177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK177" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/all-profiles.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T17:37:18+00:00</t>
+    <t>2023-10-05T13:58:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/all-profiles.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6154" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5788" uniqueCount="592">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T13:58:44+00:00</t>
+    <t>2023-10-05T15:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1459,171 +1459,6 @@
   </si>
   <si>
     <t>code MedDRA / MedDRA condition</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.system</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/mdr</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.version</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.code</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.display</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.coding.userSelected</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition:medDRACondition.text</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
   </si>
   <si>
     <t>ResearchStudy.condition:diseaseCondition</t>
@@ -2967,7 +2802,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>618</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107">
@@ -2983,7 +2818,7 @@
         <v>8</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>619</v>
+        <v>564</v>
       </c>
     </row>
     <row r="109">
@@ -3127,7 +2962,7 @@
         <v>4</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>620</v>
+        <v>565</v>
       </c>
     </row>
     <row r="128">
@@ -3143,7 +2978,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>621</v>
+        <v>566</v>
       </c>
     </row>
     <row r="130">
@@ -3287,7 +3122,7 @@
         <v>4</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>622</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149">
@@ -3303,7 +3138,7 @@
         <v>8</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>623</v>
+        <v>568</v>
       </c>
     </row>
     <row r="151">
@@ -3423,7 +3258,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>624</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167">
@@ -3447,7 +3282,7 @@
         <v>4</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>626</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170">
@@ -3463,7 +3298,7 @@
         <v>8</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>627</v>
+        <v>572</v>
       </c>
     </row>
     <row r="172">
@@ -3593,7 +3428,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK177"/>
+  <dimension ref="A1:AK166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3603,8 +3438,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.55078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -14667,9 +14502,11 @@
         <v>464</v>
       </c>
       <c r="C106" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="D106" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>38</v>
       </c>
@@ -14678,27 +14515,29 @@
         <v>39</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>47</v>
+        <v>466</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
         <v>38</v>
@@ -14723,13 +14562,13 @@
         <v>38</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>38</v>
+        <v>457</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>38</v>
+        <v>458</v>
       </c>
       <c r="AB106" t="s" s="2">
         <v>38</v>
@@ -14747,19 +14586,19 @@
         <v>38</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>49</v>
+        <v>454</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107">
@@ -14767,14 +14606,14 @@
         <v>310</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>467</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s" s="2">
@@ -14784,26 +14623,24 @@
         <v>40</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>127</v>
+        <v>469</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
         <v>38</v>
@@ -14840,19 +14677,19 @@
         <v>38</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE107" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>56</v>
+        <v>467</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>39</v>
@@ -14864,7 +14701,7 @@
         <v>42</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108">
@@ -14872,10 +14709,10 @@
         <v>310</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14886,7 +14723,7 @@
         <v>39</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>38</v>
@@ -14895,23 +14732,19 @@
         <v>38</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>470</v>
+        <v>47</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
         <v>38</v>
       </c>
@@ -14959,19 +14792,19 @@
         <v>38</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>474</v>
+        <v>49</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109">
@@ -14979,21 +14812,21 @@
         <v>310</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>38</v>
@@ -15005,15 +14838,17 @@
         <v>38</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
         <v>38</v>
@@ -15050,31 +14885,31 @@
         <v>38</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE109" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110">
@@ -15082,24 +14917,26 @@
         <v>310</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="D110" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="E110" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>38</v>
@@ -15108,17 +14945,15 @@
         <v>38</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>51</v>
+        <v>474</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>127</v>
+        <v>475</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
         <v>38</v>
@@ -15155,16 +14990,16 @@
         <v>38</v>
       </c>
       <c r="AC110" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE110" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>56</v>
@@ -15187,10 +15022,10 @@
         <v>310</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15213,20 +15048,18 @@
         <v>86</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
         <v>38</v>
       </c>
@@ -15250,11 +15083,13 @@
         <v>38</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z111" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA111" t="s" s="2">
-        <v>485</v>
+        <v>38</v>
       </c>
       <c r="AB111" t="s" s="2">
         <v>38</v>
@@ -15272,7 +15107,7 @@
         <v>38</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>39</v>
@@ -15292,10 +15127,10 @@
         <v>310</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15306,7 +15141,7 @@
         <v>39</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>38</v>
@@ -15318,17 +15153,15 @@
         <v>86</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
         <v>38</v>
@@ -15377,19 +15210,19 @@
         <v>38</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>66</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113">
@@ -15397,10 +15230,10 @@
         <v>310</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15411,7 +15244,7 @@
         <v>39</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>38</v>
@@ -15420,23 +15253,21 @@
         <v>38</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>103</v>
+        <v>486</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P113" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
         <v>38</v>
       </c>
@@ -15484,13 +15315,13 @@
         <v>38</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>42</v>
@@ -15504,10 +15335,10 @@
         <v>310</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15518,7 +15349,7 @@
         <v>39</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>38</v>
@@ -15530,20 +15361,18 @@
         <v>86</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P114" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
         <v>38</v>
       </c>
@@ -15567,10 +15396,10 @@
         <v>38</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>38</v>
+        <v>493</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>38</v>
@@ -15591,13 +15420,13 @@
         <v>38</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>42</v>
@@ -15611,10 +15440,10 @@
         <v>310</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15625,10 +15454,10 @@
         <v>39</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J115" t="s" s="2">
         <v>38</v>
@@ -15637,20 +15466,18 @@
         <v>86</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="P115" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>38</v>
       </c>
@@ -15674,13 +15501,13 @@
         <v>38</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>38</v>
+        <v>497</v>
       </c>
       <c r="AA115" t="s" s="2">
-        <v>38</v>
+        <v>498</v>
       </c>
       <c r="AB115" t="s" s="2">
         <v>38</v>
@@ -15698,13 +15525,13 @@
         <v>38</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>42</v>
@@ -15718,10 +15545,10 @@
         <v>310</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15735,29 +15562,27 @@
         <v>45</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J116" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
         <v>38</v>
       </c>
@@ -15805,7 +15630,7 @@
         <v>38</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>39</v>
@@ -15825,16 +15650,14 @@
         <v>310</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="D117" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>38</v>
+        <v>505</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s" s="2">
@@ -15853,16 +15676,16 @@
         <v>86</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>72</v>
+        <v>506</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>176</v>
+        <v>509</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
@@ -15888,13 +15711,13 @@
         <v>38</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>457</v>
+        <v>38</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>458</v>
+        <v>38</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>38</v>
@@ -15912,7 +15735,7 @@
         <v>38</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>39</v>
@@ -15924,7 +15747,7 @@
         <v>42</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>66</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118">
@@ -15932,24 +15755,24 @@
         <v>310</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>38</v>
+        <v>511</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>38</v>
@@ -15958,15 +15781,17 @@
         <v>86</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>523</v>
+        <v>220</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O118" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
         <v>38</v>
@@ -16015,19 +15840,19 @@
         <v>38</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>66</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119">
@@ -16035,10 +15860,10 @@
         <v>310</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -16052,24 +15877,26 @@
         <v>45</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>47</v>
+        <v>515</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O119" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
         <v>38</v>
@@ -16118,7 +15945,7 @@
         <v>38</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>49</v>
+        <v>514</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>39</v>
@@ -16127,10 +15954,10 @@
         <v>45</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>38</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120">
@@ -16138,21 +15965,21 @@
         <v>310</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>38</v>
@@ -16161,19 +15988,19 @@
         <v>38</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>51</v>
+        <v>518</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>127</v>
+        <v>519</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>186</v>
+        <v>520</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>129</v>
+        <v>273</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -16211,31 +16038,31 @@
         <v>38</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE120" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>56</v>
+        <v>517</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>43</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121">
@@ -16243,14 +16070,12 @@
         <v>310</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="D121" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>38</v>
       </c>
@@ -16259,7 +16084,7 @@
         <v>39</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>86</v>
@@ -16268,18 +16093,20 @@
         <v>38</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>529</v>
+        <v>270</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
         <v>38</v>
@@ -16328,7 +16155,7 @@
         <v>38</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>56</v>
+        <v>521</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>39</v>
@@ -16340,7 +16167,7 @@
         <v>42</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>43</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122">
@@ -16348,10 +16175,10 @@
         <v>310</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16374,16 +16201,16 @@
         <v>86</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>534</v>
+        <v>176</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
@@ -16409,13 +16236,13 @@
         <v>38</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>38</v>
+        <v>527</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>38</v>
+        <v>528</v>
       </c>
       <c r="AB122" t="s" s="2">
         <v>38</v>
@@ -16433,7 +16260,7 @@
         <v>38</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>39</v>
@@ -16453,10 +16280,10 @@
         <v>310</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16476,18 +16303,20 @@
         <v>38</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>180</v>
+        <v>530</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O123" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
         <v>38</v>
@@ -16536,7 +16365,7 @@
         <v>38</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>39</v>
@@ -16548,7 +16377,7 @@
         <v>42</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124">
@@ -16556,10 +16385,10 @@
         <v>310</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16582,17 +16411,15 @@
         <v>38</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>541</v>
+        <v>240</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
         <v>38</v>
@@ -16641,7 +16468,7 @@
         <v>38</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>39</v>
@@ -16661,10 +16488,10 @@
         <v>310</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16675,7 +16502,7 @@
         <v>39</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>38</v>
@@ -16684,20 +16511,18 @@
         <v>38</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>546</v>
+        <v>47</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
         <v>38</v>
@@ -16722,10 +16547,10 @@
         <v>38</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>548</v>
+        <v>38</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>38</v>
@@ -16746,19 +16571,19 @@
         <v>38</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>545</v>
+        <v>49</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126">
@@ -16766,14 +16591,14 @@
         <v>310</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" t="s" s="2">
@@ -16783,25 +16608,25 @@
         <v>40</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J126" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>550</v>
+        <v>127</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>551</v>
+        <v>186</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
@@ -16827,31 +16652,31 @@
         <v>38</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>552</v>
+        <v>38</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>553</v>
+        <v>38</v>
       </c>
       <c r="AB126" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC126" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE126" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>549</v>
+        <v>56</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>39</v>
@@ -16863,7 +16688,7 @@
         <v>42</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127">
@@ -16871,44 +16696,46 @@
         <v>310</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J127" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J127" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="K127" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>555</v>
+        <v>51</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>556</v>
+        <v>248</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>557</v>
+        <v>249</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="P127" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="P127" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="Q127" t="s" s="2">
         <v>38</v>
       </c>
@@ -16956,19 +16783,19 @@
         <v>38</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>554</v>
+        <v>250</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128">
@@ -16976,42 +16803,42 @@
         <v>310</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>560</v>
+        <v>38</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>561</v>
+        <v>46</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>564</v>
+        <v>144</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
@@ -17061,19 +16888,19 @@
         <v>38</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129">
@@ -17081,14 +16908,14 @@
         <v>310</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>566</v>
+        <v>38</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" t="s" s="2">
@@ -17104,19 +16931,19 @@
         <v>38</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
@@ -17166,7 +16993,7 @@
         <v>38</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>39</v>
@@ -17178,7 +17005,7 @@
         <v>42</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>225</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130">
@@ -17186,10 +17013,10 @@
         <v>310</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17203,25 +17030,25 @@
         <v>45</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
@@ -17271,7 +17098,7 @@
         <v>38</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>39</v>
@@ -17283,7 +17110,7 @@
         <v>42</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131">
@@ -17291,10 +17118,10 @@
         <v>310</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17305,7 +17132,7 @@
         <v>39</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>38</v>
@@ -17314,20 +17141,18 @@
         <v>38</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>573</v>
+        <v>240</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
         <v>38</v>
@@ -17376,19 +17201,19 @@
         <v>38</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132">
@@ -17396,10 +17221,10 @@
         <v>310</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17410,29 +17235,27 @@
         <v>39</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>577</v>
+        <v>47</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O132" s="2"/>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
         <v>38</v>
@@ -17481,19 +17304,19 @@
         <v>38</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>576</v>
+        <v>49</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133">
@@ -17501,21 +17324,21 @@
         <v>310</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>38</v>
@@ -17524,19 +17347,19 @@
         <v>38</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>580</v>
+        <v>127</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>581</v>
+        <v>186</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
@@ -17562,43 +17385,43 @@
         <v>38</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>582</v>
+        <v>38</v>
       </c>
       <c r="AA133" t="s" s="2">
-        <v>583</v>
+        <v>38</v>
       </c>
       <c r="AB133" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD133" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE133" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>579</v>
+        <v>56</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134">
@@ -17606,14 +17429,14 @@
         <v>310</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
@@ -17626,24 +17449,26 @@
         <v>38</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>585</v>
+        <v>51</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>586</v>
+        <v>248</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>587</v>
+        <v>249</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="P134" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="P134" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="Q134" t="s" s="2">
         <v>38</v>
       </c>
@@ -17691,7 +17516,7 @@
         <v>38</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>584</v>
+        <v>250</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>39</v>
@@ -17703,7 +17528,7 @@
         <v>42</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135">
@@ -17711,10 +17536,10 @@
         <v>310</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17725,7 +17550,7 @@
         <v>39</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>38</v>
@@ -17737,15 +17562,17 @@
         <v>38</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>590</v>
+        <v>556</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O135" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="O135" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
         <v>38</v>
@@ -17794,13 +17621,13 @@
         <v>38</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>42</v>
@@ -17814,10 +17641,10 @@
         <v>310</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17840,15 +17667,17 @@
         <v>38</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>47</v>
+        <v>559</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O136" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
         <v>38</v>
@@ -17873,13 +17702,13 @@
         <v>38</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>38</v>
+        <v>561</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>38</v>
+        <v>562</v>
       </c>
       <c r="AB136" t="s" s="2">
         <v>38</v>
@@ -17897,7 +17726,7 @@
         <v>38</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>49</v>
+        <v>558</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>39</v>
@@ -17906,25 +17735,25 @@
         <v>45</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>593</v>
+        <v>29</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>593</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
@@ -17943,17 +17772,15 @@
         <v>38</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
         <v>38</v>
@@ -17990,19 +17817,19 @@
         <v>38</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>39</v>
@@ -18019,49 +17846,45 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>594</v>
+        <v>44</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>594</v>
+        <v>44</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P138" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>38</v>
       </c>
@@ -18109,30 +17932,30 @@
         <v>38</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>595</v>
+        <v>50</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>595</v>
+        <v>50</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18140,10 +17963,10 @@
       </c>
       <c r="F139" s="2"/>
       <c r="G139" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>38</v>
@@ -18155,17 +17978,15 @@
         <v>38</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>596</v>
+        <v>29</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
         <v>38</v>
@@ -18202,42 +18023,42 @@
         <v>38</v>
       </c>
       <c r="AC139" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD139" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE139" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>598</v>
+        <v>57</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>598</v>
+        <v>57</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18245,7 +18066,7 @@
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>45</v>
@@ -18260,16 +18081,16 @@
         <v>38</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>599</v>
+        <v>59</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
@@ -18277,7 +18098,7 @@
       </c>
       <c r="R140" s="2"/>
       <c r="S140" t="s" s="2">
-        <v>38</v>
+        <v>563</v>
       </c>
       <c r="T140" t="s" s="2">
         <v>38</v>
@@ -18319,30 +18140,30 @@
         <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>598</v>
+        <v>57</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>601</v>
+        <v>62</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>601</v>
+        <v>62</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18365,17 +18186,15 @@
         <v>38</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>602</v>
+        <v>64</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>38</v>
@@ -18424,7 +18243,7 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>601</v>
+        <v>62</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
@@ -18441,13 +18260,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>604</v>
+        <v>29</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>604</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18470,13 +18289,13 @@
         <v>38</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>605</v>
+        <v>29</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>606</v>
+        <v>342</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -18527,7 +18346,7 @@
         <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>604</v>
+        <v>29</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
@@ -18539,18 +18358,18 @@
         <v>42</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>607</v>
+        <v>44</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>607</v>
+        <v>44</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18647,24 +18466,24 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>608</v>
+        <v>50</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>608</v>
+        <v>50</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>38</v>
@@ -18679,14 +18498,12 @@
         <v>51</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O144" s="2"/>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
         <v>38</v>
@@ -18752,55 +18569,53 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>609</v>
+        <v>57</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>609</v>
+        <v>57</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>248</v>
+        <v>59</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P145" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R145" s="2"/>
       <c r="S145" t="s" s="2">
-        <v>38</v>
+        <v>565</v>
       </c>
       <c r="T145" t="s" s="2">
         <v>38</v>
@@ -18842,30 +18657,30 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>610</v>
+        <v>62</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>610</v>
+        <v>62</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18888,17 +18703,15 @@
         <v>38</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>611</v>
+        <v>64</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O146" s="2"/>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
         <v>38</v>
@@ -18947,7 +18760,7 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>610</v>
+        <v>62</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>39</v>
@@ -18964,13 +18777,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>613</v>
+        <v>29</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>613</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18981,7 +18794,7 @@
         <v>39</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>38</v>
@@ -18993,17 +18806,15 @@
         <v>38</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>614</v>
+        <v>29</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="O147" s="2"/>
       <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
         <v>38</v>
@@ -19028,13 +18839,13 @@
         <v>38</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>616</v>
+        <v>38</v>
       </c>
       <c r="AA147" t="s" s="2">
-        <v>617</v>
+        <v>38</v>
       </c>
       <c r="AB147" t="s" s="2">
         <v>38</v>
@@ -19052,30 +18863,30 @@
         <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>613</v>
+        <v>29</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>334</v>
+        <v>188</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19086,7 +18897,7 @@
         <v>39</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>38</v>
@@ -19098,13 +18909,13 @@
         <v>38</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>337</v>
+        <v>48</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -19155,30 +18966,30 @@
         <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>334</v>
+        <v>188</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19189,7 +19000,7 @@
         <v>39</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>38</v>
@@ -19201,13 +19012,13 @@
         <v>38</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -19246,42 +19057,42 @@
         <v>38</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>334</v>
+        <v>188</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19289,10 +19100,10 @@
       </c>
       <c r="F150" s="2"/>
       <c r="G150" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>38</v>
@@ -19304,22 +19115,24 @@
         <v>38</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O150" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R150" s="2"/>
       <c r="S150" t="s" s="2">
-        <v>38</v>
+        <v>567</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>38</v>
@@ -19349,42 +19162,42 @@
         <v>38</v>
       </c>
       <c r="AC150" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD150" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE150" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>334</v>
+        <v>188</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19392,7 +19205,7 @@
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>45</v>
@@ -19407,24 +19220,22 @@
         <v>38</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>58</v>
+        <v>570</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O151" s="2"/>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R151" s="2"/>
       <c r="S151" t="s" s="2">
-        <v>618</v>
+        <v>38</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>38</v>
@@ -19466,30 +19277,30 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19500,7 +19311,7 @@
         <v>39</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>38</v>
@@ -19512,13 +19323,13 @@
         <v>38</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -19569,30 +19380,30 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19603,7 +19414,7 @@
         <v>39</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>38</v>
@@ -19615,13 +19426,13 @@
         <v>38</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -19672,41 +19483,41 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>38</v>
@@ -19718,15 +19529,17 @@
         <v>38</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O154" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
         <v>38</v>
@@ -19763,44 +19576,46 @@
         <v>38</v>
       </c>
       <c r="AC154" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD154" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE154" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>50</v>
+        <v>573</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="D155" s="2"/>
+      <c r="D155" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="E155" t="s" s="2">
         <v>38</v>
       </c>
@@ -19809,7 +19624,7 @@
         <v>39</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>38</v>
@@ -19824,7 +19639,7 @@
         <v>51</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>29</v>
+        <v>575</v>
       </c>
       <c r="N155" t="s" s="2">
         <v>52</v>
@@ -19866,16 +19681,16 @@
         <v>38</v>
       </c>
       <c r="AC155" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD155" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE155" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>56</v>
@@ -19895,13 +19710,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>57</v>
+        <v>576</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>57</v>
+        <v>577</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19909,7 +19724,7 @@
       </c>
       <c r="F156" s="2"/>
       <c r="G156" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>45</v>
@@ -19924,24 +19739,22 @@
         <v>38</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O156" s="2"/>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R156" s="2"/>
       <c r="S156" t="s" s="2">
-        <v>620</v>
+        <v>38</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>38</v>
@@ -19983,10 +19796,10 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>45</v>
@@ -20000,13 +19813,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>62</v>
+        <v>578</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>62</v>
+        <v>579</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20017,7 +19830,7 @@
         <v>39</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>38</v>
@@ -20029,13 +19842,13 @@
         <v>38</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -20074,42 +19887,42 @@
         <v>38</v>
       </c>
       <c r="AC157" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE157" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>29</v>
+        <v>580</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>29</v>
+        <v>581</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20117,10 +19930,10 @@
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>38</v>
@@ -20132,22 +19945,24 @@
         <v>38</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O158" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O158" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R158" s="2"/>
       <c r="S158" t="s" s="2">
-        <v>38</v>
+        <v>574</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>38</v>
@@ -20189,30 +20004,30 @@
         <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>44</v>
+        <v>582</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>44</v>
+        <v>583</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20235,13 +20050,13 @@
         <v>38</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -20268,13 +20083,11 @@
         <v>38</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Z159" s="2"/>
       <c r="AA159" t="s" s="2">
-        <v>38</v>
+        <v>584</v>
       </c>
       <c r="AB159" t="s" s="2">
         <v>38</v>
@@ -20292,7 +20105,7 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>39</v>
@@ -20301,23 +20114,25 @@
         <v>45</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>50</v>
+        <v>585</v>
       </c>
       <c r="C160" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="D160" s="2"/>
+      <c r="D160" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="E160" t="s" s="2">
         <v>38</v>
       </c>
@@ -20326,7 +20141,7 @@
         <v>39</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>38</v>
@@ -20383,16 +20198,16 @@
         <v>38</v>
       </c>
       <c r="AC160" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE160" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>56</v>
@@ -20412,13 +20227,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>57</v>
+        <v>587</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>57</v>
+        <v>577</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20426,7 +20241,7 @@
       </c>
       <c r="F161" s="2"/>
       <c r="G161" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>45</v>
@@ -20441,24 +20256,22 @@
         <v>38</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O161" s="2"/>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R161" s="2"/>
       <c r="S161" t="s" s="2">
-        <v>622</v>
+        <v>38</v>
       </c>
       <c r="T161" t="s" s="2">
         <v>38</v>
@@ -20500,10 +20313,10 @@
         <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>45</v>
@@ -20517,13 +20330,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>62</v>
+        <v>588</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>62</v>
+        <v>579</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20534,7 +20347,7 @@
         <v>39</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>38</v>
@@ -20546,13 +20359,13 @@
         <v>38</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -20591,31 +20404,31 @@
         <v>38</v>
       </c>
       <c r="AC162" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD162" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE162" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163">
@@ -20623,10 +20436,10 @@
         <v>344</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>29</v>
+        <v>589</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>29</v>
+        <v>581</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20634,10 +20447,10 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>38</v>
@@ -20649,22 +20462,24 @@
         <v>38</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O163" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O163" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R163" s="2"/>
       <c r="S163" t="s" s="2">
-        <v>38</v>
+        <v>586</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>38</v>
@@ -20706,19 +20521,19 @@
         <v>38</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164">
@@ -20726,10 +20541,10 @@
         <v>344</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>44</v>
+        <v>590</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>44</v>
+        <v>583</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20755,10 +20570,10 @@
         <v>46</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -20809,7 +20624,7 @@
         <v>38</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>39</v>
@@ -20818,10 +20633,10 @@
         <v>45</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165">
@@ -20829,21 +20644,21 @@
         <v>344</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>38</v>
@@ -20855,16 +20670,16 @@
         <v>38</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
@@ -20872,7 +20687,7 @@
       </c>
       <c r="R165" s="2"/>
       <c r="S165" t="s" s="2">
-        <v>38</v>
+        <v>571</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>38</v>
@@ -20902,31 +20717,31 @@
         <v>38</v>
       </c>
       <c r="AC165" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD165" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE165" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="166">
@@ -20934,14 +20749,12 @@
         <v>344</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>628</v>
+        <v>62</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D166" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
         <v>38</v>
       </c>
@@ -20950,7 +20763,7 @@
         <v>39</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>38</v>
@@ -20962,13 +20775,13 @@
         <v>38</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>51</v>
+        <v>591</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>630</v>
+        <v>64</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
@@ -21019,1157 +20832,18 @@
         <v>38</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F167" s="2"/>
-      <c r="G167" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R167" s="2"/>
-      <c r="S167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG167" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH167" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI167" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ167" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C168" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F168" s="2"/>
-      <c r="G168" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R168" s="2"/>
-      <c r="S168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F169" s="2"/>
-      <c r="G169" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P169" s="2"/>
-      <c r="Q169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R169" s="2"/>
-      <c r="S169" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F170" s="2"/>
-      <c r="G170" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R170" s="2"/>
-      <c r="S170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Z170" s="2"/>
-      <c r="AA170" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AH170" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI170" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ170" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK170" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="C171" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D171" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="E171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F171" s="2"/>
-      <c r="G171" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H171" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R171" s="2"/>
-      <c r="S171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C172" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F172" s="2"/>
-      <c r="G172" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H172" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R172" s="2"/>
-      <c r="S172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG172" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH172" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI172" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ172" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK172" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F173" s="2"/>
-      <c r="G173" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R173" s="2"/>
-      <c r="S173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK173" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F174" s="2"/>
-      <c r="G174" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P174" s="2"/>
-      <c r="Q174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R174" s="2"/>
-      <c r="S174" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="C175" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F175" s="2"/>
-      <c r="G175" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R175" s="2"/>
-      <c r="S175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK175" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C176" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F176" s="2"/>
-      <c r="G176" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P176" s="2"/>
-      <c r="Q176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R176" s="2"/>
-      <c r="S176" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C177" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F177" s="2"/>
-      <c r="G177" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R177" s="2"/>
-      <c r="S177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AH177" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK177" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/all-profiles.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6484" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6750" uniqueCount="637">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T06:48:32+00:00</t>
+    <t>2023-10-06T19:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1473,6 +1473,63 @@
     <t>code MedDRA / MedDRA condition</t>
   </si>
   <si>
+    <t>ResearchStudy.condition:medDRACondition.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.id</t>
+  </si>
+  <si>
+    <t>meddra-condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.text</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
     <t>ResearchStudy.condition:diseaseCondition</t>
   </si>
   <si>
@@ -1480,6 +1537,21 @@
   </si>
   <si>
     <t>condition de la pathologie / Disease Condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.id</t>
+  </si>
+  <si>
+    <t>disease-condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.text</t>
   </si>
   <si>
     <t>ResearchStudy.contact</t>
@@ -3020,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>489</v>
+        <v>513</v>
       </c>
     </row>
     <row r="127">
@@ -3028,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>580</v>
+        <v>604</v>
       </c>
     </row>
     <row r="128">
@@ -3044,7 +3116,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="130">
@@ -3096,7 +3168,7 @@
         <v>20</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>492</v>
+        <v>516</v>
       </c>
     </row>
     <row r="137">
@@ -3188,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>583</v>
+        <v>607</v>
       </c>
     </row>
     <row r="149">
@@ -3204,7 +3276,7 @@
         <v>8</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>584</v>
+        <v>608</v>
       </c>
     </row>
     <row r="151">
@@ -3348,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>585</v>
+        <v>609</v>
       </c>
     </row>
     <row r="170">
@@ -3364,7 +3436,7 @@
         <v>8</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>586</v>
+        <v>610</v>
       </c>
     </row>
     <row r="172">
@@ -3500,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>484</v>
+        <v>508</v>
       </c>
     </row>
     <row r="190">
@@ -3508,7 +3580,7 @@
         <v>4</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>587</v>
+        <v>611</v>
       </c>
     </row>
     <row r="191">
@@ -3524,7 +3596,7 @@
         <v>8</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>588</v>
+        <v>612</v>
       </c>
     </row>
     <row r="193">
@@ -3576,7 +3648,7 @@
         <v>20</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>487</v>
+        <v>511</v>
       </c>
     </row>
     <row r="200">
@@ -3668,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>589</v>
+        <v>613</v>
       </c>
     </row>
     <row r="212">
@@ -3684,7 +3756,7 @@
         <v>8</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>590</v>
+        <v>614</v>
       </c>
     </row>
     <row r="214">
@@ -3804,7 +3876,7 @@
         <v>36</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>591</v>
+        <v>615</v>
       </c>
     </row>
     <row r="230">
@@ -3828,7 +3900,7 @@
         <v>4</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>592</v>
+        <v>616</v>
       </c>
     </row>
     <row r="233">
@@ -3844,7 +3916,7 @@
         <v>8</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>593</v>
+        <v>617</v>
       </c>
     </row>
     <row r="235">
@@ -3974,7 +4046,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK184"/>
+  <dimension ref="A1:AK192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4000,7 +4072,7 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="10.54296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.30078125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -15565,42 +15637,38 @@
         <v>468</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="D111" t="s" s="2">
         <v>469</v>
       </c>
+      <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>470</v>
+        <v>47</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
         <v>38</v>
@@ -15610,7 +15678,7 @@
         <v>38</v>
       </c>
       <c r="T111" t="s" s="2">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="U111" t="s" s="2">
         <v>38</v>
@@ -15625,13 +15693,13 @@
         <v>38</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>461</v>
+        <v>38</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>462</v>
+        <v>38</v>
       </c>
       <c r="AB111" t="s" s="2">
         <v>38</v>
@@ -15649,19 +15717,19 @@
         <v>38</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>458</v>
+        <v>49</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112">
@@ -15672,11 +15740,11 @@
         <v>471</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
@@ -15686,24 +15754,26 @@
         <v>40</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>472</v>
+        <v>51</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>473</v>
+        <v>132</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
         <v>38</v>
@@ -15740,19 +15810,19 @@
         <v>38</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE112" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>471</v>
+        <v>56</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>39</v>
@@ -15764,7 +15834,7 @@
         <v>42</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113">
@@ -15772,10 +15842,10 @@
         <v>314</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15786,7 +15856,7 @@
         <v>39</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>38</v>
@@ -15795,19 +15865,23 @@
         <v>38</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>47</v>
+        <v>475</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="Q113" t="s" s="2">
         <v>38</v>
       </c>
@@ -15855,19 +15929,19 @@
         <v>38</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>49</v>
+        <v>479</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114">
@@ -15875,21 +15949,21 @@
         <v>314</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>38</v>
@@ -15898,21 +15972,23 @@
         <v>38</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>132</v>
+        <v>482</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>191</v>
+        <v>483</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="P114" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="Q114" t="s" s="2">
         <v>38</v>
       </c>
@@ -15948,31 +16024,31 @@
         <v>38</v>
       </c>
       <c r="AC114" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE114" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>56</v>
+        <v>486</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115">
@@ -15980,13 +16056,13 @@
         <v>314</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>67</v>
+        <v>488</v>
       </c>
       <c r="E115" t="s" s="2">
         <v>38</v>
@@ -15996,7 +16072,7 @@
         <v>39</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>91</v>
@@ -16005,18 +16081,20 @@
         <v>38</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>478</v>
+        <v>72</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>38</v>
@@ -16041,13 +16119,13 @@
         <v>38</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>38</v>
+        <v>461</v>
       </c>
       <c r="AA115" t="s" s="2">
-        <v>38</v>
+        <v>462</v>
       </c>
       <c r="AB115" t="s" s="2">
         <v>38</v>
@@ -16065,7 +16143,7 @@
         <v>38</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>56</v>
+        <v>458</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>39</v>
@@ -16077,7 +16155,7 @@
         <v>42</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116">
@@ -16085,26 +16163,24 @@
         <v>314</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="D116" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J116" t="s" s="2">
         <v>38</v>
@@ -16113,13 +16189,13 @@
         <v>38</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>481</v>
+        <v>46</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>482</v>
+        <v>47</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -16131,7 +16207,7 @@
         <v>38</v>
       </c>
       <c r="T116" t="s" s="2">
-        <v>38</v>
+        <v>491</v>
       </c>
       <c r="U116" t="s" s="2">
         <v>38</v>
@@ -16170,19 +16246,19 @@
         <v>38</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117">
@@ -16190,26 +16266,24 @@
         <v>314</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="D117" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J117" t="s" s="2">
         <v>38</v>
@@ -16218,15 +16292,17 @@
         <v>38</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>485</v>
+        <v>51</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>486</v>
+        <v>132</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O117" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
         <v>38</v>
@@ -16263,16 +16339,16 @@
         <v>38</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE117" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>56</v>
@@ -16295,14 +16371,12 @@
         <v>314</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="D118" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>38</v>
       </c>
@@ -16311,7 +16385,7 @@
         <v>39</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>38</v>
@@ -16320,19 +16394,23 @@
         <v>38</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>490</v>
+        <v>153</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="Q118" t="s" s="2">
         <v>38</v>
       </c>
@@ -16380,7 +16458,7 @@
         <v>38</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>56</v>
+        <v>479</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>39</v>
@@ -16392,7 +16470,7 @@
         <v>42</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119">
@@ -16400,10 +16478,10 @@
         <v>314</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -16429,15 +16507,17 @@
         <v>46</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="P119" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="Q119" t="s" s="2">
         <v>38</v>
       </c>
@@ -16485,7 +16565,7 @@
         <v>38</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>39</v>
@@ -16505,10 +16585,10 @@
         <v>314</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -16522,7 +16602,7 @@
         <v>40</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>38</v>
@@ -16531,13 +16611,13 @@
         <v>91</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>185</v>
+        <v>496</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -16588,7 +16668,7 @@
         <v>38</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>39</v>
@@ -16600,7 +16680,7 @@
         <v>42</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>188</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121">
@@ -16608,10 +16688,10 @@
         <v>314</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16622,7 +16702,7 @@
         <v>39</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>38</v>
@@ -16634,17 +16714,15 @@
         <v>38</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>503</v>
+        <v>46</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>504</v>
+        <v>47</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O121" s="2"/>
       <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
         <v>38</v>
@@ -16693,19 +16771,19 @@
         <v>38</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>502</v>
+        <v>49</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122">
@@ -16713,14 +16791,14 @@
         <v>314</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" t="s" s="2">
@@ -16736,19 +16814,19 @@
         <v>38</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>508</v>
+        <v>132</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>509</v>
+        <v>191</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
@@ -16774,10 +16852,10 @@
         <v>38</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>510</v>
+        <v>38</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>38</v>
@@ -16786,19 +16864,19 @@
         <v>38</v>
       </c>
       <c r="AC122" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE122" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>39</v>
@@ -16810,7 +16888,7 @@
         <v>42</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123">
@@ -16818,12 +16896,14 @@
         <v>314</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="D123" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="E123" t="s" s="2">
         <v>38</v>
       </c>
@@ -16832,7 +16912,7 @@
         <v>39</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>91</v>
@@ -16841,20 +16921,18 @@
         <v>38</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>72</v>
+        <v>502</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O123" s="2"/>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
         <v>38</v>
@@ -16879,13 +16957,13 @@
         <v>38</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>514</v>
+        <v>38</v>
       </c>
       <c r="AA123" t="s" s="2">
-        <v>515</v>
+        <v>38</v>
       </c>
       <c r="AB123" t="s" s="2">
         <v>38</v>
@@ -16903,7 +16981,7 @@
         <v>38</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>511</v>
+        <v>56</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>39</v>
@@ -16915,7 +16993,7 @@
         <v>42</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124">
@@ -16923,12 +17001,14 @@
         <v>314</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="D124" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="E124" t="s" s="2">
         <v>38</v>
       </c>
@@ -16949,17 +17029,15 @@
         <v>38</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
         <v>38</v>
@@ -17008,19 +17086,19 @@
         <v>38</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>516</v>
+        <v>56</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125">
@@ -17028,21 +17106,23 @@
         <v>314</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="D125" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="E125" t="s" s="2">
-        <v>522</v>
+        <v>38</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>91</v>
@@ -17051,20 +17131,18 @@
         <v>38</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
         <v>38</v>
@@ -17113,7 +17191,7 @@
         <v>38</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>521</v>
+        <v>56</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>39</v>
@@ -17125,7 +17203,7 @@
         <v>42</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>272</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126">
@@ -17133,14 +17211,16 @@
         <v>314</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="E126" t="s" s="2">
-        <v>528</v>
+        <v>38</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" t="s" s="2">
@@ -17156,20 +17236,18 @@
         <v>38</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>225</v>
+        <v>514</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="O126" s="2"/>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
         <v>38</v>
@@ -17218,19 +17296,19 @@
         <v>38</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>527</v>
+        <v>56</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>230</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127">
@@ -17238,10 +17316,10 @@
         <v>314</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17255,7 +17333,7 @@
         <v>45</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J127" t="s" s="2">
         <v>38</v>
@@ -17264,16 +17342,16 @@
         <v>91</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>277</v>
+        <v>520</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
@@ -17323,7 +17401,7 @@
         <v>38</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>39</v>
@@ -17335,7 +17413,7 @@
         <v>42</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>272</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128">
@@ -17343,10 +17421,10 @@
         <v>314</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17357,7 +17435,7 @@
         <v>39</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>38</v>
@@ -17369,17 +17447,15 @@
         <v>91</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>535</v>
+        <v>185</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="O128" s="2"/>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
         <v>38</v>
@@ -17428,19 +17504,19 @@
         <v>38</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>272</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129">
@@ -17448,10 +17524,10 @@
         <v>314</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17465,25 +17541,25 @@
         <v>40</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>274</v>
+        <v>527</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>277</v>
+        <v>530</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
@@ -17533,7 +17609,7 @@
         <v>38</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>39</v>
@@ -17545,7 +17621,7 @@
         <v>42</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>272</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130">
@@ -17553,10 +17629,10 @@
         <v>314</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17567,7 +17643,7 @@
         <v>39</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>38</v>
@@ -17582,10 +17658,10 @@
         <v>72</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>181</v>
@@ -17617,10 +17693,10 @@
         <v>240</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>545</v>
+        <v>38</v>
       </c>
       <c r="AB130" t="s" s="2">
         <v>38</v>
@@ -17638,13 +17714,13 @@
         <v>38</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>42</v>
@@ -17658,10 +17734,10 @@
         <v>314</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17675,25 +17751,25 @@
         <v>40</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>547</v>
+        <v>72</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>550</v>
+        <v>181</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
@@ -17719,13 +17795,13 @@
         <v>38</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>38</v>
+        <v>538</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>38</v>
+        <v>539</v>
       </c>
       <c r="AB131" t="s" s="2">
         <v>38</v>
@@ -17743,7 +17819,7 @@
         <v>38</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>39</v>
@@ -17763,10 +17839,10 @@
         <v>314</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17777,10 +17853,10 @@
         <v>39</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>38</v>
@@ -17789,15 +17865,17 @@
         <v>38</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>244</v>
+        <v>541</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
         <v>38</v>
@@ -17846,13 +17924,13 @@
         <v>38</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>42</v>
@@ -17866,41 +17944,43 @@
         <v>314</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>38</v>
+        <v>546</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J133" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>46</v>
+        <v>547</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>47</v>
+        <v>548</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O133" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
         <v>38</v>
@@ -17949,19 +18029,19 @@
         <v>38</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>49</v>
+        <v>545</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134">
@@ -17969,21 +18049,21 @@
         <v>314</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>131</v>
+        <v>552</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>38</v>
@@ -17992,19 +18072,19 @@
         <v>38</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>132</v>
+        <v>553</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>191</v>
+        <v>554</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -18042,31 +18122,31 @@
         <v>38</v>
       </c>
       <c r="AC134" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE134" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>56</v>
+        <v>551</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>43</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135">
@@ -18074,46 +18154,44 @@
         <v>314</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>51</v>
+        <v>267</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>252</v>
+        <v>556</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>253</v>
+        <v>557</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="P135" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
         <v>38</v>
       </c>
@@ -18161,19 +18239,19 @@
         <v>38</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>254</v>
+        <v>555</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>43</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136">
@@ -18181,10 +18259,10 @@
         <v>314</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18192,7 +18270,7 @@
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>45</v>
@@ -18204,19 +18282,19 @@
         <v>38</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>46</v>
+        <v>559</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -18266,10 +18344,10 @@
         <v>38</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>45</v>
@@ -18278,7 +18356,7 @@
         <v>42</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>66</v>
+        <v>272</v>
       </c>
     </row>
     <row r="137">
@@ -18286,10 +18364,10 @@
         <v>314</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18300,28 +18378,28 @@
         <v>39</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J137" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
@@ -18371,19 +18449,19 @@
         <v>38</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>66</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138">
@@ -18391,10 +18469,10 @@
         <v>314</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18414,19 +18492,19 @@
         <v>38</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
@@ -18452,13 +18530,13 @@
         <v>38</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>38</v>
+        <v>568</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>38</v>
+        <v>569</v>
       </c>
       <c r="AB138" t="s" s="2">
         <v>38</v>
@@ -18476,7 +18554,7 @@
         <v>38</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>39</v>
@@ -18496,10 +18574,10 @@
         <v>314</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18522,15 +18600,17 @@
         <v>38</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>244</v>
+        <v>571</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O139" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
         <v>38</v>
@@ -18579,7 +18659,7 @@
         <v>38</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>39</v>
@@ -18599,10 +18679,10 @@
         <v>314</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18613,7 +18693,7 @@
         <v>39</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>38</v>
@@ -18625,13 +18705,13 @@
         <v>38</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>47</v>
+        <v>576</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>48</v>
+        <v>577</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
@@ -18682,19 +18762,19 @@
         <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>49</v>
+        <v>575</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141">
@@ -18702,21 +18782,21 @@
         <v>314</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I141" t="s" s="2">
         <v>38</v>
@@ -18728,17 +18808,15 @@
         <v>38</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>38</v>
@@ -18775,31 +18853,31 @@
         <v>38</v>
       </c>
       <c r="AC141" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD141" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE141" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142">
@@ -18807,14 +18885,14 @@
         <v>314</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>251</v>
+        <v>131</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" t="s" s="2">
@@ -18827,26 +18905,24 @@
         <v>38</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="L142" t="s" s="2">
         <v>51</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="P142" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
         <v>38</v>
       </c>
@@ -18882,19 +18958,19 @@
         <v>38</v>
       </c>
       <c r="AC142" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD142" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE142" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
@@ -18914,44 +18990,46 @@
         <v>314</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>573</v>
+        <v>252</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>574</v>
+        <v>253</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="P143" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="P143" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="Q143" t="s" s="2">
         <v>38</v>
       </c>
@@ -18999,19 +19077,19 @@
         <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>572</v>
+        <v>254</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144">
@@ -19019,10 +19097,10 @@
         <v>314</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19030,7 +19108,7 @@
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>45</v>
@@ -19045,16 +19123,16 @@
         <v>38</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -19080,13 +19158,13 @@
         <v>38</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>578</v>
+        <v>38</v>
       </c>
       <c r="AA144" t="s" s="2">
-        <v>579</v>
+        <v>38</v>
       </c>
       <c r="AB144" t="s" s="2">
         <v>38</v>
@@ -19104,10 +19182,10 @@
         <v>38</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>45</v>
@@ -19121,13 +19199,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>489</v>
+        <v>314</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>29</v>
+        <v>584</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>29</v>
+        <v>584</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19138,7 +19216,7 @@
         <v>39</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>38</v>
@@ -19150,15 +19228,17 @@
         <v>38</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O145" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
         <v>38</v>
@@ -19207,30 +19287,30 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>29</v>
+        <v>584</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>489</v>
+        <v>314</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>44</v>
+        <v>587</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>44</v>
+        <v>587</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19256,12 +19336,14 @@
         <v>46</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>47</v>
+        <v>588</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
         <v>38</v>
@@ -19310,7 +19392,7 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>49</v>
+        <v>587</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>39</v>
@@ -19319,21 +19401,21 @@
         <v>45</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>489</v>
+        <v>314</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>50</v>
+        <v>590</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>50</v>
+        <v>590</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19344,7 +19426,7 @@
         <v>39</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>38</v>
@@ -19356,13 +19438,13 @@
         <v>38</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>29</v>
+        <v>591</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>52</v>
+        <v>592</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -19401,19 +19483,19 @@
         <v>38</v>
       </c>
       <c r="AC147" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD147" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE147" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>56</v>
+        <v>590</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>39</v>
@@ -19425,18 +19507,18 @@
         <v>42</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>489</v>
+        <v>314</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>57</v>
+        <v>593</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>57</v>
+        <v>593</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19444,7 +19526,7 @@
       </c>
       <c r="F148" s="2"/>
       <c r="G148" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>45</v>
@@ -19459,24 +19541,22 @@
         <v>38</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O148" s="2"/>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R148" s="2"/>
       <c r="S148" t="s" s="2">
-        <v>580</v>
+        <v>38</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>38</v>
@@ -19518,10 +19598,10 @@
         <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>45</v>
@@ -19535,24 +19615,24 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>489</v>
+        <v>314</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>62</v>
+        <v>594</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>62</v>
+        <v>594</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>38</v>
@@ -19564,15 +19644,17 @@
         <v>38</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>582</v>
+        <v>51</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O149" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
         <v>38</v>
@@ -19609,46 +19691,46 @@
         <v>38</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>29</v>
+        <v>595</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>29</v>
+        <v>595</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" t="s" s="2">
@@ -19661,22 +19743,26 @@
         <v>38</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="P150" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="Q150" t="s" s="2">
         <v>38</v>
       </c>
@@ -19724,7 +19810,7 @@
         <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
@@ -19741,13 +19827,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>44</v>
+        <v>596</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>44</v>
+        <v>596</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19773,12 +19859,14 @@
         <v>46</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>47</v>
+        <v>597</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O151" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
         <v>38</v>
@@ -19827,7 +19915,7 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>49</v>
+        <v>596</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
@@ -19836,21 +19924,21 @@
         <v>45</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>50</v>
+        <v>599</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>50</v>
+        <v>599</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19861,7 +19949,7 @@
         <v>39</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>38</v>
@@ -19873,15 +19961,17 @@
         <v>38</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>29</v>
+        <v>600</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O152" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="O152" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
         <v>38</v>
@@ -19906,54 +19996,54 @@
         <v>38</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>38</v>
+        <v>602</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>38</v>
+        <v>603</v>
       </c>
       <c r="AB152" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC152" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD152" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE152" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>56</v>
+        <v>599</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>338</v>
+        <v>513</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19961,10 +20051,10 @@
       </c>
       <c r="F153" s="2"/>
       <c r="G153" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>38</v>
@@ -19976,24 +20066,22 @@
         <v>38</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="O153" s="2"/>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R153" s="2"/>
       <c r="S153" t="s" s="2">
-        <v>583</v>
+        <v>38</v>
       </c>
       <c r="T153" t="s" s="2">
         <v>38</v>
@@ -20035,30 +20123,30 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>338</v>
+        <v>513</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20081,13 +20169,13 @@
         <v>38</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -20138,7 +20226,7 @@
         <v>38</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>39</v>
@@ -20147,21 +20235,21 @@
         <v>45</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>343</v>
+        <v>513</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20172,7 +20260,7 @@
         <v>39</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>38</v>
@@ -20184,13 +20272,13 @@
         <v>38</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M155" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>346</v>
+        <v>52</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -20229,19 +20317,19 @@
         <v>38</v>
       </c>
       <c r="AC155" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD155" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE155" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
@@ -20258,13 +20346,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>343</v>
+        <v>513</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20272,7 +20360,7 @@
       </c>
       <c r="F156" s="2"/>
       <c r="G156" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>45</v>
@@ -20287,22 +20375,24 @@
         <v>38</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O156" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R156" s="2"/>
       <c r="S156" t="s" s="2">
-        <v>38</v>
+        <v>604</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>38</v>
@@ -20344,10 +20434,10 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>45</v>
@@ -20361,13 +20451,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>343</v>
+        <v>513</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20378,7 +20468,7 @@
         <v>39</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>38</v>
@@ -20390,13 +20480,13 @@
         <v>38</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>51</v>
+        <v>606</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -20435,42 +20525,42 @@
         <v>38</v>
       </c>
       <c r="AC157" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE157" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20478,10 +20568,10 @@
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>38</v>
@@ -20493,24 +20583,22 @@
         <v>38</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="O158" s="2"/>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R158" s="2"/>
       <c r="S158" t="s" s="2">
-        <v>585</v>
+        <v>38</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>38</v>
@@ -20552,30 +20640,30 @@
         <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20598,13 +20686,13 @@
         <v>38</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -20655,7 +20743,7 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>39</v>
@@ -20664,21 +20752,21 @@
         <v>45</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>484</v>
+        <v>338</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20689,7 +20777,7 @@
         <v>39</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>38</v>
@@ -20701,13 +20789,13 @@
         <v>38</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M160" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>487</v>
+        <v>52</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -20746,19 +20834,19 @@
         <v>38</v>
       </c>
       <c r="AC160" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE160" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>39</v>
@@ -20775,13 +20863,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>484</v>
+        <v>338</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20789,7 +20877,7 @@
       </c>
       <c r="F161" s="2"/>
       <c r="G161" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>45</v>
@@ -20804,22 +20892,24 @@
         <v>38</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O161" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R161" s="2"/>
       <c r="S161" t="s" s="2">
-        <v>38</v>
+        <v>607</v>
       </c>
       <c r="T161" t="s" s="2">
         <v>38</v>
@@ -20861,10 +20951,10 @@
         <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>45</v>
@@ -20878,13 +20968,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>484</v>
+        <v>338</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20895,7 +20985,7 @@
         <v>39</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>38</v>
@@ -20907,13 +20997,13 @@
         <v>38</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -20952,42 +21042,42 @@
         <v>38</v>
       </c>
       <c r="AC162" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD162" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE162" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>484</v>
+        <v>343</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20995,10 +21085,10 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>38</v>
@@ -21010,24 +21100,22 @@
         <v>38</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="O163" s="2"/>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R163" s="2"/>
       <c r="S163" t="s" s="2">
-        <v>587</v>
+        <v>38</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>38</v>
@@ -21069,30 +21157,30 @@
         <v>38</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>484</v>
+        <v>343</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21118,10 +21206,10 @@
         <v>46</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -21172,7 +21260,7 @@
         <v>38</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>39</v>
@@ -21181,21 +21269,21 @@
         <v>45</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>193</v>
+        <v>343</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21206,7 +21294,7 @@
         <v>39</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>38</v>
@@ -21218,13 +21306,13 @@
         <v>38</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
@@ -21263,19 +21351,19 @@
         <v>38</v>
       </c>
       <c r="AC165" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD165" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE165" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>39</v>
@@ -21292,13 +21380,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>193</v>
+        <v>343</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21306,7 +21394,7 @@
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>45</v>
@@ -21321,22 +21409,24 @@
         <v>38</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O166" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O166" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R166" s="2"/>
       <c r="S166" t="s" s="2">
-        <v>38</v>
+        <v>609</v>
       </c>
       <c r="T166" t="s" s="2">
         <v>38</v>
@@ -21378,10 +21468,10 @@
         <v>38</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>45</v>
@@ -21395,13 +21485,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>193</v>
+        <v>343</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21412,7 +21502,7 @@
         <v>39</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I167" t="s" s="2">
         <v>38</v>
@@ -21424,13 +21514,13 @@
         <v>38</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>51</v>
+        <v>267</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -21469,42 +21559,42 @@
         <v>38</v>
       </c>
       <c r="AC167" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD167" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21512,10 +21602,10 @@
       </c>
       <c r="F168" s="2"/>
       <c r="G168" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I168" t="s" s="2">
         <v>38</v>
@@ -21527,24 +21617,22 @@
         <v>38</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O168" s="2"/>
       <c r="P168" s="2"/>
       <c r="Q168" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R168" s="2"/>
       <c r="S168" t="s" s="2">
-        <v>589</v>
+        <v>38</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>38</v>
@@ -21586,30 +21674,30 @@
         <v>38</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21632,13 +21720,13 @@
         <v>38</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>582</v>
+        <v>46</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
@@ -21689,7 +21777,7 @@
         <v>38</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>39</v>
@@ -21698,21 +21786,21 @@
         <v>45</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>348</v>
+        <v>508</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -21723,7 +21811,7 @@
         <v>39</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I170" t="s" s="2">
         <v>38</v>
@@ -21735,13 +21823,13 @@
         <v>38</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>351</v>
+        <v>52</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -21780,19 +21868,19 @@
         <v>38</v>
       </c>
       <c r="AC170" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE170" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>39</v>
@@ -21809,13 +21897,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>348</v>
+        <v>508</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -21823,7 +21911,7 @@
       </c>
       <c r="F171" s="2"/>
       <c r="G171" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>45</v>
@@ -21838,22 +21926,24 @@
         <v>38</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O171" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R171" s="2"/>
       <c r="S171" t="s" s="2">
-        <v>38</v>
+        <v>611</v>
       </c>
       <c r="T171" t="s" s="2">
         <v>38</v>
@@ -21895,10 +21985,10 @@
         <v>38</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>45</v>
@@ -21912,24 +22002,24 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>348</v>
+        <v>508</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>38</v>
@@ -21941,17 +22031,15 @@
         <v>38</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O172" s="2"/>
       <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
         <v>38</v>
@@ -21988,46 +22076,44 @@
         <v>38</v>
       </c>
       <c r="AC172" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD172" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE172" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>594</v>
+        <v>29</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D173" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
         <v>38</v>
       </c>
@@ -22036,7 +22122,7 @@
         <v>39</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I173" t="s" s="2">
         <v>38</v>
@@ -22048,13 +22134,13 @@
         <v>38</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>596</v>
+        <v>29</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -22105,7 +22191,7 @@
         <v>38</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>39</v>
@@ -22122,13 +22208,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>597</v>
+        <v>44</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>598</v>
+        <v>44</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22225,13 +22311,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>599</v>
+        <v>50</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -22328,13 +22414,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>601</v>
+        <v>57</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>602</v>
+        <v>57</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22374,7 +22460,7 @@
       </c>
       <c r="R176" s="2"/>
       <c r="S176" t="s" s="2">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="T176" t="s" s="2">
         <v>38</v>
@@ -22433,13 +22519,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>603</v>
+        <v>62</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>604</v>
+        <v>62</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -22462,7 +22548,7 @@
         <v>38</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>72</v>
+        <v>606</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>64</v>
@@ -22495,11 +22581,13 @@
         <v>38</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Z177" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA177" t="s" s="2">
-        <v>605</v>
+        <v>38</v>
       </c>
       <c r="AB177" t="s" s="2">
         <v>38</v>
@@ -22537,14 +22625,12 @@
         <v>348</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>606</v>
+        <v>29</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D178" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>38</v>
       </c>
@@ -22553,7 +22639,7 @@
         <v>39</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>38</v>
@@ -22565,13 +22651,13 @@
         <v>38</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M178" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -22622,7 +22708,7 @@
         <v>38</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>39</v>
@@ -22642,10 +22728,10 @@
         <v>348</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>608</v>
+        <v>44</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>598</v>
+        <v>44</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -22745,21 +22831,21 @@
         <v>348</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>609</v>
+        <v>50</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>38</v>
@@ -22774,12 +22860,14 @@
         <v>51</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O180" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O180" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="P180" s="2"/>
       <c r="Q180" t="s" s="2">
         <v>38</v>
@@ -22848,18 +22936,20 @@
         <v>348</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="D181" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>619</v>
+      </c>
       <c r="E181" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H181" t="s" s="2">
         <v>45</v>
@@ -22874,24 +22964,22 @@
         <v>38</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>59</v>
+        <v>620</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O181" s="2"/>
       <c r="P181" s="2"/>
       <c r="Q181" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R181" s="2"/>
       <c r="S181" t="s" s="2">
-        <v>607</v>
+        <v>38</v>
       </c>
       <c r="T181" t="s" s="2">
         <v>38</v>
@@ -22933,19 +23021,19 @@
         <v>38</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182">
@@ -22953,10 +23041,10 @@
         <v>348</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -22982,10 +23070,10 @@
         <v>46</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -23036,7 +23124,7 @@
         <v>38</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>39</v>
@@ -23045,10 +23133,10 @@
         <v>45</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183">
@@ -23056,10 +23144,10 @@
         <v>348</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>57</v>
+        <v>623</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>57</v>
+        <v>624</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23067,10 +23155,10 @@
       </c>
       <c r="F183" s="2"/>
       <c r="G183" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>38</v>
@@ -23082,24 +23170,22 @@
         <v>38</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O183" s="2"/>
       <c r="P183" s="2"/>
       <c r="Q183" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R183" s="2"/>
       <c r="S183" t="s" s="2">
-        <v>592</v>
+        <v>38</v>
       </c>
       <c r="T183" t="s" s="2">
         <v>38</v>
@@ -23129,31 +23215,31 @@
         <v>38</v>
       </c>
       <c r="AC183" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD183" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE183" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH183" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="184">
@@ -23161,10 +23247,10 @@
         <v>348</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>62</v>
+        <v>625</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>62</v>
+        <v>626</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -23172,10 +23258,10 @@
       </c>
       <c r="F184" s="2"/>
       <c r="G184" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I184" t="s" s="2">
         <v>38</v>
@@ -23187,22 +23273,24 @@
         <v>38</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>612</v>
+        <v>58</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O184" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R184" s="2"/>
       <c r="S184" t="s" s="2">
-        <v>38</v>
+        <v>619</v>
       </c>
       <c r="T184" t="s" s="2">
         <v>38</v>
@@ -23244,18 +23332,846 @@
         <v>38</v>
       </c>
       <c r="AG184" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F185" s="2"/>
+      <c r="G185" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R185" s="2"/>
+      <c r="S185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Z185" s="2"/>
+      <c r="AA185" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG185" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AH184" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
+      <c r="AH185" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AK184" t="s" s="2">
+      <c r="AK185" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D186" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="E186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F186" s="2"/>
+      <c r="G186" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R186" s="2"/>
+      <c r="S186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N187" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R187" s="2"/>
+      <c r="S187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R188" s="2"/>
+      <c r="S188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N189" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O189" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P189" s="2"/>
+      <c r="Q189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R189" s="2"/>
+      <c r="S189" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F190" s="2"/>
+      <c r="G190" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R190" s="2"/>
+      <c r="S190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F191" s="2"/>
+      <c r="G191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O191" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P191" s="2"/>
+      <c r="Q191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R191" s="2"/>
+      <c r="S191" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F192" s="2"/>
+      <c r="G192" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R192" s="2"/>
+      <c r="S192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK192" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/all-profiles.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T19:29:53+00:00</t>
+    <t>2023-10-09T08:51:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
